--- a/文档/M1卡协议20210527修改.xlsx
+++ b/文档/M1卡协议20210527修改.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSBrowserDownloads\JD-TOUCH\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C8AD9-20CE-4EA5-A8F7-0D4B29696992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B4D62-7A6A-43F8-845E-15AC3B86F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 临时-0x00；居民-0x01;管理员-0x03;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>校验</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -640,6 +636,10 @@
   </si>
   <si>
     <t>1--写的哪些块 2--哪些解密的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 临时-0x00；居民-0x02;管理员-0x03;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1201,6 +1201,27 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,27 +1283,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,60 +1587,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="A1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="J2" s="41" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>24</v>
@@ -1648,31 +1648,31 @@
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="33" t="s">
         <v>27</v>
       </c>
@@ -1682,273 +1682,273 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="35"/>
+        <v>79</v>
+      </c>
+      <c r="J5" s="42"/>
       <c r="K5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="35"/>
+        <v>142</v>
+      </c>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="35"/>
+        <v>139</v>
+      </c>
+      <c r="J6" s="42"/>
       <c r="K6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="35"/>
+        <v>143</v>
+      </c>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="J7" s="42"/>
       <c r="K7" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="C8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="24" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="42"/>
+      <c r="I9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="42"/>
+      <c r="I11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="35"/>
+        <v>145</v>
+      </c>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="36"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" s="36"/>
+        <v>146</v>
+      </c>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>120</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="22" t="s">
         <v>19</v>
@@ -1956,110 +1956,110 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="H14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="J14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="22" t="s">
+      <c r="L14" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="50"/>
+        <v>128</v>
+      </c>
+      <c r="B15" s="57"/>
       <c r="C15" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>133</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="E16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="L16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2070,31 +2070,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="I17" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>25</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>25</v>
@@ -2102,26 +2102,26 @@
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="14"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2140,19 +2140,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>15</v>
@@ -2200,30 +2200,30 @@
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="43"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="51"/>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
@@ -2241,176 +2241,178 @@
       <c r="A26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
+      <c r="B27" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D35" s="60">
+      <c r="D35" s="34">
         <v>0</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="35">
         <v>1</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="35">
         <v>2</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="34">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D36" s="61">
+      <c r="D36" s="35">
         <v>4</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="34">
         <v>5</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="34">
         <v>6</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="61">
+      <c r="D37" s="35">
         <v>8</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="35">
         <v>9</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="35">
         <v>10</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="A19:J19"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
@@ -2427,8 +2429,6 @@
     <mergeCell ref="J2:J12"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="A19:J19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
